--- a/release/figures/SBharadwaj_20240318_Sample_3_6_06_output_v0.1_reIntegration_cca.cluster.0.5_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_3_6_06_output_v0.1_reIntegration_cca.cluster.0.5_speed_coherence.xlsx
@@ -522,31 +522,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5661727786064148</v>
+        <v>0.566146194934845</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7161099314689636</v>
+        <v>0.7159267067909241</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7193265557289124</v>
+        <v>0.7193450331687927</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7856721878051758</v>
+        <v>0.7856593728065491</v>
       </c>
       <c r="F2" t="n">
         <v>1.001259922981262</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4175970256328583</v>
+        <v>0.4175231158733368</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5798159837722778</v>
+        <v>0.5796319246292114</v>
       </c>
       <c r="I2" t="n">
         <v>0.6168695688247681</v>
       </c>
       <c r="J2" t="n">
-        <v>1.567216515541077</v>
+        <v>1.567164897918701</v>
       </c>
       <c r="K2" t="n">
         <v>0.5140880346298218</v>
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7577216209293006</v>
+        <v>0.757708435733354</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6492311932813374</v>
+        <v>0.6490970749809677</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6628522169333797</v>
+        <v>0.6628268155079452</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8092819628962786</v>
+        <v>0.8092742891226169</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8675365836562448</v>
+        <v>0.8675372525267401</v>
       </c>
       <c r="G3" t="n">
-        <v>0.639458896946885</v>
+        <v>0.6395623894776743</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6361312992825099</v>
+        <v>0.6361321545908788</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7504481413118217</v>
+        <v>0.7504255209604035</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8525886488790365</v>
+        <v>0.8525880568267143</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6683135448058821</v>
+        <v>0.6683078459083284</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6190927819563792</v>
+        <v>0.6190609745681286</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8933742412499019</v>
+        <v>0.8933750595365252</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6815957947104585</v>
+        <v>0.6815623407270394</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6876153411234126</v>
+        <v>0.687626384636935</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8273133683204651</v>
+        <v>0.8273178958892822</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7435920186664747</v>
+        <v>0.7436035094053849</v>
       </c>
     </row>
   </sheetData>

--- a/release/figures/SBharadwaj_20240318_Sample_3_6_06_output_v0.1_reIntegration_cca.cluster.0.5_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_3_6_06_output_v0.1_reIntegration_cca.cluster.0.5_speed_coherence.xlsx
@@ -525,10 +525,10 @@
         <v>0.566146194934845</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7159267067909241</v>
+        <v>0.7159971594810486</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7193450331687927</v>
+        <v>0.7193634510040283</v>
       </c>
       <c r="E2" t="n">
         <v>0.7856593728065491</v>
@@ -546,7 +546,7 @@
         <v>0.6168695688247681</v>
       </c>
       <c r="J2" t="n">
-        <v>1.567164897918701</v>
+        <v>1.567216515541077</v>
       </c>
       <c r="K2" t="n">
         <v>0.5140880346298218</v>
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.757708435733354</v>
+        <v>0.757713485991836</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6490970749809677</v>
+        <v>0.6491357547147666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6628268155079452</v>
+        <v>0.6628427085615102</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8092742891226169</v>
+        <v>0.8092735655100184</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8675372525267401</v>
+        <v>0.867536898790382</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6395623894776743</v>
+        <v>0.6395197763708514</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6361321545908788</v>
+        <v>0.6361282807460592</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7504255209604035</v>
+        <v>0.7504384910282882</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8525880568267143</v>
+        <v>0.8525869970776371</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6683078459083284</v>
+        <v>0.6683039477317588</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6190609745681286</v>
+        <v>0.6190389788985907</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8933750595365252</v>
+        <v>0.893374502658844</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6815623407270394</v>
+        <v>0.6815558759605184</v>
       </c>
       <c r="O3" t="n">
-        <v>0.687626384636935</v>
+        <v>0.6876218748443267</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8273178958892822</v>
+        <v>0.8273189735412597</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7436035094053849</v>
+        <v>0.743595698605413</v>
       </c>
     </row>
   </sheetData>
